--- a/etapa_2/pessoas_recursos/dados/cursos_posgrad_PB_agg.xlsx
+++ b/etapa_2/pessoas_recursos/dados/cursos_posgrad_PB_agg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,125 +464,240 @@
           <t>conceito_maior_igual_quatro</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>conceito_maior_cinco</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B2" t="n">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F2" t="n">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B3" t="n">
+        <v>135</v>
+      </c>
+      <c r="C3" t="n">
         <v>86</v>
       </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F3" t="n">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="B4" t="n">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F4" t="n">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B5" t="n">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F5" t="n">
-        <v>64</v>
+        <v>31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="B6" t="n">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="D6" t="n">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
-        <v>73</v>
+        <v>27</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B7" t="n">
+        <v>154</v>
+      </c>
+      <c r="C7" t="n">
+        <v>93</v>
+      </c>
+      <c r="D7" t="n">
+        <v>107</v>
+      </c>
+      <c r="E7" t="n">
+        <v>47</v>
+      </c>
+      <c r="F7" t="n">
+        <v>27</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B8" t="n">
+        <v>158</v>
+      </c>
+      <c r="C8" t="n">
+        <v>97</v>
+      </c>
+      <c r="D8" t="n">
+        <v>110</v>
+      </c>
+      <c r="E8" t="n">
+        <v>48</v>
+      </c>
+      <c r="F8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B9" t="n">
+        <v>157</v>
+      </c>
+      <c r="C9" t="n">
+        <v>96</v>
+      </c>
+      <c r="D9" t="n">
+        <v>107</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" t="n">
+        <v>32</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B10" t="n">
+        <v>162</v>
+      </c>
+      <c r="C10" t="n">
+        <v>99</v>
+      </c>
+      <c r="D10" t="n">
+        <v>111</v>
+      </c>
+      <c r="E10" t="n">
+        <v>51</v>
+      </c>
+      <c r="F10" t="n">
+        <v>54</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>2022</v>
       </c>
-      <c r="B7" t="n">
-        <v>87</v>
-      </c>
-      <c r="C7" t="n">
-        <v>42</v>
-      </c>
-      <c r="D7" t="n">
-        <v>57</v>
-      </c>
-      <c r="E7" t="n">
-        <v>30</v>
-      </c>
-      <c r="F7" t="n">
-        <v>73</v>
+      <c r="B11" t="n">
+        <v>160</v>
+      </c>
+      <c r="C11" t="n">
+        <v>98</v>
+      </c>
+      <c r="D11" t="n">
+        <v>110</v>
+      </c>
+      <c r="E11" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" t="n">
+        <v>54</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
